--- a/biology/Botanique/Asphodeline_lutea/Asphodeline_lutea.xlsx
+++ b/biology/Botanique/Asphodeline_lutea/Asphodeline_lutea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asphodéline jaune, Bâton de Jacob
 Asphodeline lutea, l'Asphodéline jaune ou Bâton de Jacob, est une espèce de plantes à fleurs de la famille des Asphodelaceae. Elle est répartie autour du bassin méditerranéen jusqu'au Caucase.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Asphodeline lutea (L.) Rchb.[1].
-L'espèce a été initialement classée dans le genre Asphodelus sous le basionyme Asphodelus luteus L.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Asphodéline jaune[2], Bâton de Jacob[3]. Elle semble parfois aussi appelée Bâton de Saint-Jacques [3], même si ce nom s'applique plutôt à la Campanule raiponce[4].
-Asphodeline lutea a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Asphodeline lutea (L.) Rchb..
+L'espèce a été initialement classée dans le genre Asphodelus sous le basionyme Asphodelus luteus L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Asphodéline jaune, Bâton de Jacob. Elle semble parfois aussi appelée Bâton de Saint-Jacques , même si ce nom s'applique plutôt à la Campanule raiponce.
+Asphodeline lutea a pour synonymes :
 Asphodelus luteus L.
 Asphodelus sibiricus Schult. &amp; Schult.f.
 Dorydium luteum (L.) Salisb.
